--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\themu\Documents\GitHub\RustBoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AE53CA3-CF6B-415F-80DD-16F306FE64F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61062E56-99B5-467F-B59A-23AC14A4AAEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2B97052-47AE-4DAE-845C-0659328573C5}"/>
+    <workbookView xWindow="5760" yWindow="2172" windowWidth="17280" windowHeight="8964" xr2:uid="{E2B97052-47AE-4DAE-845C-0659328573C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="204">
   <si>
     <t>0x0</t>
   </si>
@@ -463,13 +463,196 @@
   </si>
   <si>
     <t>JP HL</t>
+  </si>
+  <si>
+    <t>POP AF</t>
+  </si>
+  <si>
+    <t>JR NZ, i8</t>
+  </si>
+  <si>
+    <t>JR NC, i8</t>
+  </si>
+  <si>
+    <t>JR Z, i8</t>
+  </si>
+  <si>
+    <t>JR C, i8</t>
+  </si>
+  <si>
+    <t>JR i8</t>
+  </si>
+  <si>
+    <t>JP NZ, u16</t>
+  </si>
+  <si>
+    <t>JP NC, u16</t>
+  </si>
+  <si>
+    <t>JP Z, u16</t>
+  </si>
+  <si>
+    <t>JP C, u16</t>
+  </si>
+  <si>
+    <t>CALL u16</t>
+  </si>
+  <si>
+    <t>RET</t>
+  </si>
+  <si>
+    <t>INC B</t>
+  </si>
+  <si>
+    <t>INC D</t>
+  </si>
+  <si>
+    <t>INC H</t>
+  </si>
+  <si>
+    <t>INC A</t>
+  </si>
+  <si>
+    <t>INC (HL)</t>
+  </si>
+  <si>
+    <t>INC C</t>
+  </si>
+  <si>
+    <t>INC E</t>
+  </si>
+  <si>
+    <t>INC L</t>
+  </si>
+  <si>
+    <t>INC HL</t>
+  </si>
+  <si>
+    <t>INC SP</t>
+  </si>
+  <si>
+    <t>INC DE</t>
+  </si>
+  <si>
+    <t>INC BC</t>
+  </si>
+  <si>
+    <t>DEC BC</t>
+  </si>
+  <si>
+    <t>DEC DE</t>
+  </si>
+  <si>
+    <t>DEC HL</t>
+  </si>
+  <si>
+    <t>DEC SP</t>
+  </si>
+  <si>
+    <t>DEC B</t>
+  </si>
+  <si>
+    <t>DEC D</t>
+  </si>
+  <si>
+    <t>DEC H</t>
+  </si>
+  <si>
+    <t>DEC (HL)</t>
+  </si>
+  <si>
+    <t>DEC C</t>
+  </si>
+  <si>
+    <t>DEC E</t>
+  </si>
+  <si>
+    <t>DEC L</t>
+  </si>
+  <si>
+    <t>DEC A</t>
+  </si>
+  <si>
+    <t>CPL</t>
+  </si>
+  <si>
+    <t>CCF</t>
+  </si>
+  <si>
+    <t>SCF</t>
+  </si>
+  <si>
+    <t>ADD A, B</t>
+  </si>
+  <si>
+    <t>ADD A, C</t>
+  </si>
+  <si>
+    <t>ADD A, D</t>
+  </si>
+  <si>
+    <t>ADD A, E</t>
+  </si>
+  <si>
+    <t>ADD A, H</t>
+  </si>
+  <si>
+    <t>ADD A, L</t>
+  </si>
+  <si>
+    <t>ADD A, (HL)</t>
+  </si>
+  <si>
+    <t>ADD A, A</t>
+  </si>
+  <si>
+    <t>ADD A, u8</t>
+  </si>
+  <si>
+    <t>RST 00</t>
+  </si>
+  <si>
+    <t>RST 10</t>
+  </si>
+  <si>
+    <t>RST 20</t>
+  </si>
+  <si>
+    <t>RST 30</t>
+  </si>
+  <si>
+    <t>RST 18</t>
+  </si>
+  <si>
+    <t>RST 28</t>
+  </si>
+  <si>
+    <t>RST 38</t>
+  </si>
+  <si>
+    <t>RST 08</t>
+  </si>
+  <si>
+    <t>Done(%):</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>CB Prefix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,8 +666,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,8 +729,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00D05E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -563,11 +765,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -599,14 +815,25 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00D05E"/>
       <color rgb="FFFF9865"/>
       <color rgb="FFFFAE85"/>
       <color rgb="FFFFD3BD"/>
@@ -616,7 +843,6 @@
       <color rgb="FF9966FF"/>
       <color rgb="FFCC66FF"/>
       <color rgb="FFCC00FF"/>
-      <color rgb="FF9C5BCD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -927,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573F4F64-4C9D-4244-9BE6-42575C9FF34C}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1002,9 +1228,15 @@
       <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="H2" s="5" t="s">
         <v>92</v>
       </c>
@@ -1016,9 +1248,15 @@
       <c r="L2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="M2" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="P2" s="5" t="s">
         <v>84</v>
       </c>
@@ -1035,21 +1273,35 @@
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="E3" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="H3" s="5" t="s">
         <v>85</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="M3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="P3" s="5" t="s">
         <v>93</v>
       </c>
@@ -1059,63 +1311,101 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="H4" s="5" t="s">
         <v>86</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="10" t="s">
+        <v>147</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="M4" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="P4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="7" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>134</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="H5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>148</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="M5" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>179</v>
+      </c>
       <c r="P5" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1331,14 +1621,30 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="B10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1467,7 +1773,9 @@
       <c r="C14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="E14" s="10" t="s">
         <v>142</v>
       </c>
@@ -1475,16 +1783,28 @@
       <c r="G14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="J14" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="10" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1494,7 +1814,9 @@
       <c r="C15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="1"/>
       <c r="G15" s="4" t="s">
@@ -1502,14 +1824,20 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="M15" s="8"/>
       <c r="N15" s="1"/>
       <c r="O15" s="8"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="10" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1533,7 +1861,9 @@
         <v>103</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="K16" s="10" t="s">
         <v>143</v>
       </c>
@@ -1546,7 +1876,9 @@
       <c r="P16" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="10" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -1555,7 +1887,9 @@
       <c r="B17" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>138</v>
       </c>
@@ -1568,7 +1902,9 @@
         <v>120</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="K17" s="4" t="s">
         <v>130</v>
       </c>
@@ -1579,7 +1915,420 @@
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="Q17" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="13">
+        <f>((256 - COUNTBLANK(B2:Q17))/ 256)</f>
+        <v>0.71875</v>
+      </c>
+      <c r="F21" s="13">
+        <f>((256 - COUNTBLANK(B25:Q40))/ 256)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\themu\Documents\GitHub\RustBoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61062E56-99B5-467F-B59A-23AC14A4AAEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C6B4B16-3A91-499E-BDFC-DEC8AB53352D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2172" windowWidth="17280" windowHeight="8964" xr2:uid="{E2B97052-47AE-4DAE-845C-0659328573C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2B97052-47AE-4DAE-845C-0659328573C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="206">
   <si>
     <t>0x0</t>
   </si>
@@ -609,30 +610,6 @@
     <t>ADD A, u8</t>
   </si>
   <si>
-    <t>RST 00</t>
-  </si>
-  <si>
-    <t>RST 10</t>
-  </si>
-  <si>
-    <t>RST 20</t>
-  </si>
-  <si>
-    <t>RST 30</t>
-  </si>
-  <si>
-    <t>RST 18</t>
-  </si>
-  <si>
-    <t>RST 28</t>
-  </si>
-  <si>
-    <t>RST 38</t>
-  </si>
-  <si>
-    <t>RST 08</t>
-  </si>
-  <si>
     <t>Done(%):</t>
   </si>
   <si>
@@ -643,6 +620,36 @@
   </si>
   <si>
     <t>CB Prefix</t>
+  </si>
+  <si>
+    <t>RST 0x00</t>
+  </si>
+  <si>
+    <t>RST 0x10</t>
+  </si>
+  <si>
+    <t>RST 0x20</t>
+  </si>
+  <si>
+    <t>RST 0x30</t>
+  </si>
+  <si>
+    <t>RST 0x08</t>
+  </si>
+  <si>
+    <t>RST 0x18</t>
+  </si>
+  <si>
+    <t>RST 0x28</t>
+  </si>
+  <si>
+    <t>RST 0x38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -1156,12 +1163,14 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="17.33203125" style="3"/>
+    <col min="1" max="7" width="17.33203125" style="3"/>
+    <col min="8" max="8" width="17" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="17.33203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1788,7 +1797,7 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>155</v>
@@ -1803,7 +1812,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1817,7 +1826,9 @@
       <c r="D15" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="4" t="s">
         <v>100</v>
@@ -1825,18 +1836,22 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="10" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="M15" s="8"/>
+      <c r="M15" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="8"/>
+      <c r="O15" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="10" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1852,8 +1867,12 @@
       <c r="D16" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="G16" s="4" t="s">
         <v>101</v>
       </c>
@@ -1862,7 +1881,7 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>143</v>
@@ -1870,14 +1889,20 @@
       <c r="L16" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="M16" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="P16" s="7" t="s">
         <v>129</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1894,7 +1919,9 @@
         <v>138</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="G17" s="4" t="s">
         <v>102</v>
       </c>
@@ -1903,7 +1930,7 @@
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>130</v>
@@ -1912,31 +1939,35 @@
         <v>141</v>
       </c>
       <c r="M17" s="1"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="N17" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E21" s="13">
         <f>((256 - COUNTBLANK(B2:Q17))/ 256)</f>
-        <v>0.71875</v>
+        <v>0.76171875</v>
       </c>
       <c r="F21" s="13">
         <f>((256 - COUNTBLANK(B25:Q40))/ 256)</f>
